--- a/cleaned_data.xlsx
+++ b/cleaned_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Gross weight\Core\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Gross_weight\Core\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978484EF-40E8-4398-B670-515E48296FC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BFC06E9-A913-4E0B-B738-FFC261206788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">国内商品名称对应!$A$2:$AA$219</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">境外贸易商品名称!$A$1:$J$169</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">境外贸易商品名称!$A$1:$J$175</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3104" uniqueCount="1528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3134" uniqueCount="1534">
   <si>
     <t>209L</t>
   </si>
@@ -4112,9 +4112,6 @@
     <t>GadusS2V220212*0.4kg/CTN</t>
   </si>
   <si>
-    <t>12*0.4kg/CTN</t>
-  </si>
-  <si>
     <t>FG125</t>
   </si>
   <si>
@@ -4244,9 +4241,6 @@
     <t>FG145</t>
   </si>
   <si>
-    <t>ShellGadusS3V220C212*0.4kg/CTN</t>
-  </si>
-  <si>
     <t>FG146</t>
   </si>
   <si>
@@ -4356,9 +4350,6 @@
   </si>
   <si>
     <t>FG162</t>
-  </si>
-  <si>
-    <t>ShellMalleusGL3500190KG</t>
   </si>
   <si>
     <t>190KG/DRUM</t>
@@ -4761,6 +4752,42 @@
       </rPr>
       <t>桶）</t>
     </r>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>12*0.4kg/CTN</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>GadusS5V150XKD0/00170kg</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>GadusS5V150XKD1170kg</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShellMalleusGL3500190KG</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>MalleusGL3500190KG</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>HelixHX8X5W-303*5L</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>GadusS3V220C20.4KG*12</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShellGadusS3V220C20.4KG*12</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>GadusS3V220C212*0.4KG</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
 </sst>
@@ -5176,7 +5203,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5452,6 +5479,9 @@
     </xf>
     <xf numFmtId="176" fontId="30" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6381,48 +6411,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="34.9" customHeight="1">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="101"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="102"/>
       <c r="G1" s="50"/>
       <c r="H1" s="50"/>
       <c r="I1" s="50"/>
       <c r="J1" s="50"/>
-      <c r="L1" s="100" t="s">
+      <c r="L1" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="102"/>
+      <c r="O1" s="102"/>
+      <c r="P1" s="102"/>
+      <c r="Q1" s="102"/>
       <c r="R1" s="50"/>
       <c r="S1" s="50"/>
       <c r="T1" s="50"/>
-      <c r="V1" s="100" t="s">
+      <c r="V1" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="W1" s="101"/>
-      <c r="X1" s="101"/>
-      <c r="Y1" s="101"/>
-      <c r="Z1" s="101"/>
-      <c r="AA1" s="101"/>
+      <c r="W1" s="102"/>
+      <c r="X1" s="102"/>
+      <c r="Y1" s="102"/>
+      <c r="Z1" s="102"/>
+      <c r="AA1" s="102"/>
       <c r="AB1" s="50"/>
       <c r="AC1" s="50"/>
       <c r="AD1" s="50"/>
-      <c r="AF1" s="100" t="s">
+      <c r="AF1" s="101" t="s">
         <v>26</v>
       </c>
-      <c r="AG1" s="104"/>
-      <c r="AH1" s="104"/>
-      <c r="AI1" s="104"/>
-      <c r="AJ1" s="104"/>
-      <c r="AK1" s="104"/>
+      <c r="AG1" s="105"/>
+      <c r="AH1" s="105"/>
+      <c r="AI1" s="105"/>
+      <c r="AJ1" s="105"/>
+      <c r="AK1" s="105"/>
     </row>
     <row r="2" spans="1:40" s="45" customFormat="1" ht="14.1" customHeight="1">
       <c r="A2" s="51" t="s">
@@ -15710,11 +15740,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K169"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:K175"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I169" sqref="I169"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C148" sqref="C148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -15756,7 +15787,7 @@
         <v>35</v>
       </c>
       <c r="H1" s="99" t="s">
-        <v>1527</v>
+        <v>1524</v>
       </c>
       <c r="I1" s="25" t="s">
         <v>1051</v>
@@ -15765,10 +15796,10 @@
         <v>1052</v>
       </c>
       <c r="K1" s="98" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A2" s="27" t="s">
         <v>1053</v>
       </c>
@@ -15799,7 +15830,7 @@
         <v>15.03959147</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A3" s="31" t="s">
         <v>1057</v>
       </c>
@@ -15830,7 +15861,7 @@
         <v>200.3127886</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A4" s="31" t="s">
         <v>1061</v>
       </c>
@@ -15859,7 +15890,7 @@
         <v>200.3127886</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A5" s="31" t="s">
         <v>1064</v>
       </c>
@@ -15890,7 +15921,7 @@
         <v>19.541989340000001</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A6" s="31" t="s">
         <v>1068</v>
       </c>
@@ -15916,7 +15947,7 @@
         <v>17.765790410000001</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A7" s="31" t="s">
         <v>1068</v>
       </c>
@@ -15924,7 +15955,7 @@
         <v>1072</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>1521</v>
+        <v>1518</v>
       </c>
       <c r="D7" s="31" t="s">
         <v>1071</v>
@@ -15942,7 +15973,7 @@
         <v>17.765790410000001</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A8" s="31" t="s">
         <v>1068</v>
       </c>
@@ -15968,7 +15999,7 @@
         <v>17.765790410000001</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A9" s="31" t="s">
         <v>1075</v>
       </c>
@@ -15997,7 +16028,7 @@
         <v>200.3127886</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A10" s="31" t="s">
         <v>1078</v>
       </c>
@@ -16028,7 +16059,7 @@
         <v>200.3127886</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A11" s="31" t="s">
         <v>1068</v>
       </c>
@@ -16054,7 +16085,7 @@
         <v>174.5579041</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A12" s="31" t="s">
         <v>1078</v>
       </c>
@@ -16086,7 +16117,7 @@
         <v>200.3127886</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A13" s="31" t="s">
         <v>1078</v>
       </c>
@@ -16115,7 +16146,7 @@
         <v>19.541989340000001</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A14" s="31" t="s">
         <v>1064</v>
       </c>
@@ -16144,7 +16175,7 @@
         <v>19.541989340000001</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A15" s="31" t="s">
         <v>1064</v>
       </c>
@@ -16176,7 +16207,7 @@
         <v>19.541989340000001</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A16" s="31" t="s">
         <v>1057</v>
       </c>
@@ -16205,7 +16236,7 @@
         <v>200.3127886</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A17" s="31" t="s">
         <v>1094</v>
       </c>
@@ -16236,7 +16267,7 @@
         <v>200.3127886</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A18" s="31" t="s">
         <v>1094</v>
       </c>
@@ -16267,7 +16298,7 @@
         <v>19.541989340000001</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A19" s="31" t="s">
         <v>1094</v>
       </c>
@@ -16298,7 +16329,7 @@
         <v>200.3127886</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A20" s="31" t="s">
         <v>1094</v>
       </c>
@@ -16327,7 +16358,7 @@
         <v>19.541989340000001</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A21" s="31" t="s">
         <v>1094</v>
       </c>
@@ -16356,7 +16387,7 @@
         <v>200.3127886</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A22" s="31" t="s">
         <v>1094</v>
       </c>
@@ -16388,7 +16419,7 @@
         <v>19.541989340000001</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A23" s="31" t="s">
         <v>1094</v>
       </c>
@@ -16420,7 +16451,7 @@
         <v>200.3127886</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A24" s="31" t="s">
         <v>1094</v>
       </c>
@@ -16449,7 +16480,7 @@
         <v>19.541989340000001</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A25" s="31" t="s">
         <v>1111</v>
       </c>
@@ -16480,7 +16511,7 @@
         <v>200.3127886</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A26" s="31" t="s">
         <v>1094</v>
       </c>
@@ -16511,7 +16542,7 @@
         <v>200.3127886</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A27" s="31" t="s">
         <v>1094</v>
       </c>
@@ -16542,7 +16573,7 @@
         <v>200.3127886</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A28" s="31" t="s">
         <v>1094</v>
       </c>
@@ -16573,7 +16604,7 @@
         <v>200.3127886</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A29" s="31" t="s">
         <v>1094</v>
       </c>
@@ -16602,7 +16633,7 @@
         <v>200.3127886</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A30" s="31" t="s">
         <v>1094</v>
       </c>
@@ -16633,7 +16664,7 @@
         <v>200.3127886</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A31" s="31" t="s">
         <v>1094</v>
       </c>
@@ -16667,7 +16698,7 @@
         <v>200.3127886</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="32" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A32" s="27" t="s">
         <v>1053</v>
       </c>
@@ -16701,7 +16732,7 @@
         <v>200.3127886</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="33" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A33" s="27" t="s">
         <v>1053</v>
       </c>
@@ -16735,7 +16766,7 @@
         <v>11.48719361</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="34" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A34" s="31" t="s">
         <v>1078</v>
       </c>
@@ -16766,7 +16797,7 @@
         <v>19.541989340000001</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="35" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A35" s="27" t="s">
         <v>1053</v>
       </c>
@@ -16797,7 +16828,7 @@
         <v>200.3127886</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="36" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A36" s="27" t="s">
         <v>1053</v>
       </c>
@@ -16828,7 +16859,7 @@
         <v>200.3127886</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="37" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A37" s="27" t="s">
         <v>1053</v>
       </c>
@@ -16862,7 +16893,7 @@
         <v>200.3127886</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="38" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A38" s="27" t="s">
         <v>1053</v>
       </c>
@@ -16893,7 +16924,7 @@
         <v>200.3127886</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="39" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A39" s="27" t="s">
         <v>1053</v>
       </c>
@@ -16924,7 +16955,7 @@
         <v>200.3127886</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="40" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A40" s="31" t="s">
         <v>1078</v>
       </c>
@@ -16956,7 +16987,7 @@
         <v>200.3127886</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="41" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A41" s="31" t="s">
         <v>1057</v>
       </c>
@@ -16987,7 +17018,7 @@
         <v>15.03959147</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="42" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A42" s="27" t="s">
         <v>1053</v>
       </c>
@@ -17024,7 +17055,7 @@
         <v>11.48719361</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="43" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A43" s="27" t="s">
         <v>1053</v>
       </c>
@@ -17061,7 +17092,7 @@
         <v>15.03959147</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="44" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A44" s="31" t="s">
         <v>1155</v>
       </c>
@@ -17092,7 +17123,7 @@
         <v>200.3127886</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="45" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A45" s="31" t="s">
         <v>1094</v>
       </c>
@@ -17121,7 +17152,7 @@
         <v>200.3127886</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="46" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A46" s="31" t="s">
         <v>1094</v>
       </c>
@@ -17153,7 +17184,7 @@
         <v>19.541989340000001</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="47" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A47" s="31" t="s">
         <v>1068</v>
       </c>
@@ -17181,7 +17212,7 @@
         <v>17.765790410000001</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="48" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A48" s="31" t="s">
         <v>1068</v>
       </c>
@@ -17207,7 +17238,7 @@
         <v>17.765790410000001</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="49" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A49" s="31" t="s">
         <v>1094</v>
       </c>
@@ -17239,7 +17270,7 @@
         <v>19.541989340000001</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="50" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A50" s="27" t="s">
         <v>1053</v>
       </c>
@@ -17273,7 +17304,7 @@
         <v>15.03959147</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="51" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A51" s="27" t="s">
         <v>1053</v>
       </c>
@@ -17307,7 +17338,7 @@
         <v>15.03959147</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="52" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A52" s="31" t="s">
         <v>1078</v>
       </c>
@@ -17341,7 +17372,7 @@
         <v>200.3127886</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="53" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A53" s="31" t="s">
         <v>1174</v>
       </c>
@@ -17375,7 +17406,7 @@
         <v>200.3127886</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="54" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A54" s="31" t="s">
         <v>1078</v>
       </c>
@@ -17409,7 +17440,7 @@
         <v>200.3127886</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="55" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A55" s="31" t="s">
         <v>1057</v>
       </c>
@@ -17443,7 +17474,7 @@
         <v>200.3127886</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="56" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A56" s="31" t="s">
         <v>1111</v>
       </c>
@@ -17477,7 +17508,7 @@
         <v>200.3127886</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="57" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A57" s="31" t="s">
         <v>1064</v>
       </c>
@@ -17508,7 +17539,7 @@
         <v>19.541989340000001</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="58" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A58" s="31" t="s">
         <v>1064</v>
       </c>
@@ -17537,7 +17568,7 @@
         <v>19.541989340000001</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="59" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A59" s="31" t="s">
         <v>1064</v>
       </c>
@@ -17568,7 +17599,7 @@
         <v>19.541989340000001</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="60" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A60" s="31" t="s">
         <v>1111</v>
       </c>
@@ -17599,7 +17630,7 @@
         <v>200.3127886</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="61" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A61" s="27" t="s">
         <v>1053</v>
       </c>
@@ -17630,7 +17661,7 @@
         <v>11.48719361</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="62" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A62" s="27" t="s">
         <v>1053</v>
       </c>
@@ -17664,7 +17695,7 @@
         <v>15.03959147</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="63" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A63" s="27" t="s">
         <v>1053</v>
       </c>
@@ -17695,7 +17726,7 @@
         <v>11.48719361</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="64" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A64" s="27" t="s">
         <v>1053</v>
       </c>
@@ -17729,7 +17760,7 @@
         <v>15.03959147</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="65" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A65" s="27" t="s">
         <v>1053</v>
       </c>
@@ -17763,7 +17794,7 @@
         <v>11.48719361</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="66" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A66" s="27" t="s">
         <v>1053</v>
       </c>
@@ -17792,7 +17823,7 @@
         <v>11.48719361</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="67" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A67" s="27" t="s">
         <v>1053</v>
       </c>
@@ -17823,7 +17854,7 @@
         <v>15.03959147</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="68" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A68" s="27" t="s">
         <v>1053</v>
       </c>
@@ -17854,7 +17885,7 @@
         <v>11.48719361</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="69" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A69" s="27" t="s">
         <v>1053</v>
       </c>
@@ -17885,7 +17916,7 @@
         <v>15.03959147</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="70" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A70" s="27" t="s">
         <v>903</v>
       </c>
@@ -17893,7 +17924,7 @@
         <v>1209</v>
       </c>
       <c r="C70" s="29" t="s">
-        <v>1524</v>
+        <v>1521</v>
       </c>
       <c r="D70" s="27" t="s">
         <v>1060</v>
@@ -17917,7 +17948,7 @@
         <v>200.3127886</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="71" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A71" s="27" t="s">
         <v>1053</v>
       </c>
@@ -17948,7 +17979,7 @@
         <v>200.3127886</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="72" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A72" s="27" t="s">
         <v>1053</v>
       </c>
@@ -17977,7 +18008,7 @@
         <v>200.3127886</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="73" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A73" s="27" t="s">
         <v>1053</v>
       </c>
@@ -18008,7 +18039,7 @@
         <v>200.3127886</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="74" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A74" s="31" t="s">
         <v>1068</v>
       </c>
@@ -18034,7 +18065,7 @@
         <v>17.765790410000001</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="75" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A75" s="31" t="s">
         <v>1078</v>
       </c>
@@ -18063,7 +18094,7 @@
         <v>200.3127886</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="76" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A76" s="27" t="s">
         <v>1053</v>
       </c>
@@ -18094,7 +18125,7 @@
         <v>11.48719361</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="77" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A77" s="31" t="s">
         <v>1064</v>
       </c>
@@ -18125,7 +18156,7 @@
         <v>200.3127886</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="78" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A78" s="31" t="s">
         <v>1068</v>
       </c>
@@ -18151,7 +18182,7 @@
         <v>17.765790410000001</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="79" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A79" s="31" t="s">
         <v>1057</v>
       </c>
@@ -18180,7 +18211,7 @@
         <v>11.48719361</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="80" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A80" s="31" t="s">
         <v>1068</v>
       </c>
@@ -18188,7 +18219,7 @@
         <v>1228</v>
       </c>
       <c r="C80" s="34" t="s">
-        <v>1522</v>
+        <v>1519</v>
       </c>
       <c r="D80" s="31" t="s">
         <v>1071</v>
@@ -18206,7 +18237,7 @@
         <v>17.765790410000001</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="81" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A81" s="31" t="s">
         <v>1094</v>
       </c>
@@ -18240,7 +18271,7 @@
         <v>19.541989340000001</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="82" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A82" s="31" t="s">
         <v>1057</v>
       </c>
@@ -18271,7 +18302,7 @@
         <v>19.541989340000001</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="83" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A83" s="31" t="s">
         <v>1078</v>
       </c>
@@ -18300,7 +18331,7 @@
         <v>200.3127886</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="84" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A84" s="31" t="s">
         <v>1094</v>
       </c>
@@ -18331,7 +18362,7 @@
         <v>200.3127886</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="85" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A85" s="31" t="s">
         <v>1078</v>
       </c>
@@ -18360,7 +18391,7 @@
         <v>19.541989340000001</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="86" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A86" s="31" t="s">
         <v>1111</v>
       </c>
@@ -18391,7 +18422,7 @@
         <v>200.3127886</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="87" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A87" s="31" t="s">
         <v>1057</v>
       </c>
@@ -18422,7 +18453,7 @@
         <v>19.541989340000001</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="88" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A88" s="27" t="s">
         <v>1053</v>
       </c>
@@ -18453,7 +18484,7 @@
         <v>11.48719361</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="89" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A89" s="27" t="s">
         <v>1053</v>
       </c>
@@ -18484,7 +18515,7 @@
         <v>15.03959147</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="90" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A90" s="31" t="s">
         <v>1094</v>
       </c>
@@ -18513,7 +18544,7 @@
         <v>19.541989340000001</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="91" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A91" s="31" t="s">
         <v>1249</v>
       </c>
@@ -18535,10 +18566,10 @@
         <v>17610</v>
       </c>
       <c r="K91" s="98" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" ht="20.100000000000001" customHeight="1">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A92" s="31" t="s">
         <v>1111</v>
       </c>
@@ -18567,7 +18598,7 @@
         <v>200.3127886</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="93" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A93" s="31" t="s">
         <v>1111</v>
       </c>
@@ -18599,7 +18630,7 @@
         <v>200.3127886</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="94" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A94" s="31" t="s">
         <v>1111</v>
       </c>
@@ -18628,7 +18659,7 @@
         <v>200.3127886</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="95" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A95" s="34" t="s">
         <v>1259</v>
       </c>
@@ -18657,7 +18688,7 @@
         <v>200.3127886</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="96" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A96" s="31" t="s">
         <v>1111</v>
       </c>
@@ -18686,7 +18717,7 @@
         <v>200.3127886</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="97" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A97" s="31" t="s">
         <v>1111</v>
       </c>
@@ -18715,7 +18746,7 @@
         <v>200.3127886</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="98" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A98" s="31" t="s">
         <v>1111</v>
       </c>
@@ -18744,7 +18775,7 @@
         <v>200.3127886</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="99" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A99" s="31" t="s">
         <v>1057</v>
       </c>
@@ -18775,7 +18806,7 @@
         <v>200.3127886</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="100" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A100" s="31" t="s">
         <v>1057</v>
       </c>
@@ -18806,7 +18837,7 @@
         <v>200.3127886</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="101" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A101" s="27" t="s">
         <v>1053</v>
       </c>
@@ -18837,7 +18868,7 @@
         <v>15.03959147</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="102" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A102" s="27" t="s">
         <v>1053</v>
       </c>
@@ -18868,7 +18899,7 @@
         <v>11.48719361</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="103" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A103" s="27" t="s">
         <v>1068</v>
       </c>
@@ -18894,7 +18925,7 @@
         <v>17.765790410000001</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="104" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A104" s="27" t="s">
         <v>1053</v>
       </c>
@@ -18923,7 +18954,7 @@
         <v>15.03959147</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="105" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A105" s="27" t="s">
         <v>695</v>
       </c>
@@ -18952,7 +18983,7 @@
         <v>200.3127886</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="106" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A106" s="27" t="s">
         <v>695</v>
       </c>
@@ -18981,7 +19012,7 @@
         <v>19.541989340000001</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="107" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A107" s="27" t="s">
         <v>193</v>
       </c>
@@ -19010,7 +19041,7 @@
         <v>19.541989340000001</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="108" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A108" s="31" t="s">
         <v>1249</v>
       </c>
@@ -19032,10 +19063,10 @@
         <v>17610</v>
       </c>
       <c r="K108" s="98" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" ht="20.100000000000001" customHeight="1">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A109" s="27" t="s">
         <v>1068</v>
       </c>
@@ -19061,7 +19092,7 @@
         <v>17.765790410000001</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="110" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A110" s="27" t="s">
         <v>1053</v>
       </c>
@@ -19095,7 +19126,7 @@
         <v>15.03959147</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="111" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A111" s="27" t="s">
         <v>1053</v>
       </c>
@@ -19129,7 +19160,7 @@
         <v>11.48719361</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="112" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A112" s="31" t="s">
         <v>1057</v>
       </c>
@@ -19160,7 +19191,7 @@
         <v>200.3127886</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="113" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A113" s="31" t="s">
         <v>1057</v>
       </c>
@@ -19189,7 +19220,7 @@
         <v>200.3127886</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="114" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A114" s="31" t="s">
         <v>1078</v>
       </c>
@@ -19223,7 +19254,7 @@
         <v>19.541989340000001</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="115" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A115" s="37" t="s">
         <v>1094</v>
       </c>
@@ -19256,7 +19287,7 @@
         <v>200.3127886</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="116" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A116" s="31" t="s">
         <v>1111</v>
       </c>
@@ -19285,7 +19316,7 @@
         <v>19.541989340000001</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="117" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A117" s="31" t="s">
         <v>1111</v>
       </c>
@@ -19314,7 +19345,7 @@
         <v>19.541989340000001</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="118" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A118" s="27" t="s">
         <v>1053</v>
       </c>
@@ -19345,7 +19376,7 @@
         <v>200.3127886</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="119" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A119" s="27" t="s">
         <v>1094</v>
       </c>
@@ -19376,7 +19407,7 @@
         <v>200.3127886</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="120" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A120" s="27" t="s">
         <v>318</v>
       </c>
@@ -19407,7 +19438,7 @@
         <v>200.3127886</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="121" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A121" s="31" t="s">
         <v>1111</v>
       </c>
@@ -19436,7 +19467,7 @@
         <v>200.3127886</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="122" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A122" s="31" t="s">
         <v>429</v>
       </c>
@@ -19465,7 +19496,7 @@
         <v>200.3127886</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="123" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A123" s="31" t="s">
         <v>1053</v>
       </c>
@@ -19499,7 +19530,7 @@
         <v>15.03959147</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="124" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A124" s="31" t="s">
         <v>1053</v>
       </c>
@@ -19544,7 +19575,7 @@
         <v>1322</v>
       </c>
       <c r="D125" s="31" t="s">
-        <v>1323</v>
+        <v>1525</v>
       </c>
       <c r="E125" s="30">
         <v>5.45</v>
@@ -19561,7 +19592,7 @@
         <v>550050006</v>
       </c>
       <c r="K125" s="98" t="s">
-        <v>1525</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="126" spans="1:11" ht="20.100000000000001" customHeight="1">
@@ -19569,13 +19600,13 @@
         <v>1111</v>
       </c>
       <c r="B126" s="40" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C126" s="34" t="s">
         <v>1324</v>
       </c>
-      <c r="C126" s="34" t="s">
+      <c r="D126" s="31" t="s">
         <v>1325</v>
-      </c>
-      <c r="D126" s="31" t="s">
-        <v>1326</v>
       </c>
       <c r="E126" s="35"/>
       <c r="F126" s="31">
@@ -19590,18 +19621,18 @@
         <v>195.036</v>
       </c>
       <c r="K126" s="98" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" ht="20.100000000000001" customHeight="1">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A127" s="31" t="s">
         <v>1094</v>
       </c>
       <c r="B127" s="40" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C127" s="34" t="s">
         <v>1327</v>
-      </c>
-      <c r="C127" s="34" t="s">
-        <v>1328</v>
       </c>
       <c r="D127" s="31" t="s">
         <v>1060</v>
@@ -19625,15 +19656,15 @@
         <v>200.3127886</v>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="128" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A128" s="31" t="s">
         <v>1068</v>
       </c>
       <c r="B128" s="40" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C128" s="34" t="s">
         <v>1329</v>
-      </c>
-      <c r="C128" s="34" t="s">
-        <v>1330</v>
       </c>
       <c r="D128" s="31" t="s">
         <v>1071</v>
@@ -19654,15 +19685,15 @@
         <v>17.765790410000001</v>
       </c>
     </row>
-    <row r="129" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="129" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A129" s="31" t="s">
         <v>1068</v>
       </c>
       <c r="B129" s="40" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C129" s="34" t="s">
         <v>1331</v>
-      </c>
-      <c r="C129" s="34" t="s">
-        <v>1332</v>
       </c>
       <c r="D129" s="31" t="s">
         <v>1071</v>
@@ -19683,15 +19714,15 @@
         <v>17.765790410000001</v>
       </c>
     </row>
-    <row r="130" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="130" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A130" s="31" t="s">
         <v>1068</v>
       </c>
       <c r="B130" s="40" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C130" s="34" t="s">
         <v>1333</v>
-      </c>
-      <c r="C130" s="34" t="s">
-        <v>1334</v>
       </c>
       <c r="D130" s="31" t="s">
         <v>1071</v>
@@ -19712,15 +19743,15 @@
         <v>17.765790410000001</v>
       </c>
     </row>
-    <row r="131" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="131" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A131" s="31" t="s">
         <v>1068</v>
       </c>
       <c r="B131" s="40" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C131" s="34" t="s">
         <v>1335</v>
-      </c>
-      <c r="C131" s="34" t="s">
-        <v>1336</v>
       </c>
       <c r="D131" s="31" t="s">
         <v>1071</v>
@@ -19741,18 +19772,18 @@
         <v>17.765790410000001</v>
       </c>
     </row>
-    <row r="132" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="132" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A132" s="31" t="s">
         <v>1068</v>
       </c>
       <c r="B132" s="40" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C132" s="34" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D132" s="31" t="s">
         <v>1337</v>
-      </c>
-      <c r="C132" s="34" t="s">
-        <v>1523</v>
-      </c>
-      <c r="D132" s="31" t="s">
-        <v>1338</v>
       </c>
       <c r="E132" s="35"/>
       <c r="F132" s="31"/>
@@ -19770,15 +19801,15 @@
         <v>174.5579041</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="133" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A133" s="31" t="s">
         <v>1111</v>
       </c>
       <c r="B133" s="40" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C133" s="34" t="s">
         <v>1339</v>
-      </c>
-      <c r="C133" s="34" t="s">
-        <v>1340</v>
       </c>
       <c r="D133" s="31" t="s">
         <v>1060</v>
@@ -19806,13 +19837,13 @@
         <v>1111</v>
       </c>
       <c r="B134" s="40" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C134" s="34" t="s">
         <v>1341</v>
       </c>
-      <c r="C134" s="34" t="s">
+      <c r="D134" s="31" t="s">
         <v>1342</v>
-      </c>
-      <c r="D134" s="31" t="s">
-        <v>1343</v>
       </c>
       <c r="E134" s="30">
         <v>186</v>
@@ -19829,18 +19860,18 @@
         <v>195.12269999999998</v>
       </c>
       <c r="K134" s="98" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" ht="20.100000000000001" customHeight="1">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A135" s="31" t="s">
         <v>1057</v>
       </c>
       <c r="B135" s="40" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C135" s="34" t="s">
         <v>1344</v>
-      </c>
-      <c r="C135" s="34" t="s">
-        <v>1345</v>
       </c>
       <c r="D135" s="31" t="s">
         <v>1060</v>
@@ -19861,15 +19892,15 @@
         <v>200.3127886</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="136" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A136" s="31" t="s">
         <v>738</v>
       </c>
       <c r="B136" s="40" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C136" s="34" t="s">
         <v>1346</v>
-      </c>
-      <c r="C136" s="34" t="s">
-        <v>1347</v>
       </c>
       <c r="D136" s="31" t="s">
         <v>1060</v>
@@ -19892,15 +19923,15 @@
         <v>200.3127886</v>
       </c>
     </row>
-    <row r="137" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="137" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A137" s="31" t="s">
         <v>860</v>
       </c>
       <c r="B137" s="40" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C137" s="34" t="s">
         <v>1348</v>
-      </c>
-      <c r="C137" s="34" t="s">
-        <v>1349</v>
       </c>
       <c r="D137" s="31" t="s">
         <v>1060</v>
@@ -19921,15 +19952,15 @@
         <v>200.3127886</v>
       </c>
     </row>
-    <row r="138" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="138" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A138" s="31" t="s">
         <v>1057</v>
       </c>
       <c r="B138" s="40" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C138" s="34" t="s">
         <v>1350</v>
-      </c>
-      <c r="C138" s="34" t="s">
-        <v>1351</v>
       </c>
       <c r="D138" s="31" t="s">
         <v>1067</v>
@@ -19952,13 +19983,13 @@
         <v>19.541989340000001</v>
       </c>
     </row>
-    <row r="139" spans="1:11" ht="18.95" customHeight="1">
+    <row r="139" spans="1:11" ht="18.95" hidden="1" customHeight="1">
       <c r="A139" s="34"/>
       <c r="B139" s="40" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C139" s="34" t="s">
         <v>1352</v>
-      </c>
-      <c r="C139" s="34" t="s">
-        <v>1353</v>
       </c>
       <c r="D139" s="31" t="s">
         <v>1060</v>
@@ -19979,15 +20010,15 @@
         <v>200.3127886</v>
       </c>
     </row>
-    <row r="140" spans="1:11" ht="18.95" customHeight="1">
+    <row r="140" spans="1:11" ht="18.95" hidden="1" customHeight="1">
       <c r="A140" s="31" t="s">
         <v>1068</v>
       </c>
       <c r="B140" s="40" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C140" s="34" t="s">
         <v>1354</v>
-      </c>
-      <c r="C140" s="34" t="s">
-        <v>1355</v>
       </c>
       <c r="D140" s="31" t="s">
         <v>1071</v>
@@ -20005,15 +20036,15 @@
         <v>17.765790410000001</v>
       </c>
     </row>
-    <row r="141" spans="1:11" ht="18.95" customHeight="1">
+    <row r="141" spans="1:11" ht="18.95" hidden="1" customHeight="1">
       <c r="A141" s="31" t="s">
         <v>1111</v>
       </c>
       <c r="B141" s="40" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C141" s="34" t="s">
         <v>1356</v>
-      </c>
-      <c r="C141" s="34" t="s">
-        <v>1357</v>
       </c>
       <c r="D141" s="31" t="s">
         <v>1067</v>
@@ -20036,15 +20067,15 @@
         <v>19.541989340000001</v>
       </c>
     </row>
-    <row r="142" spans="1:11" ht="18.95" customHeight="1">
+    <row r="142" spans="1:11" ht="18.95" hidden="1" customHeight="1">
       <c r="A142" s="31" t="s">
         <v>1111</v>
       </c>
       <c r="B142" s="40" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C142" s="34" t="s">
         <v>1358</v>
-      </c>
-      <c r="C142" s="34" t="s">
-        <v>1359</v>
       </c>
       <c r="D142" s="31" t="s">
         <v>1067</v>
@@ -20067,18 +20098,18 @@
         <v>19.541989340000001</v>
       </c>
     </row>
-    <row r="143" spans="1:11" ht="18.95" customHeight="1">
+    <row r="143" spans="1:11" ht="18.95" hidden="1" customHeight="1">
       <c r="A143" s="31" t="s">
         <v>1068</v>
       </c>
       <c r="B143" s="40" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C143" s="34" t="s">
         <v>1360</v>
       </c>
-      <c r="C143" s="34" t="s">
-        <v>1361</v>
-      </c>
       <c r="D143" s="34" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="E143" s="35"/>
       <c r="F143" s="34"/>
@@ -20093,15 +20124,15 @@
         <v>174.5579041</v>
       </c>
     </row>
-    <row r="144" spans="1:11" ht="18.95" customHeight="1">
+    <row r="144" spans="1:11" ht="18.95" hidden="1" customHeight="1">
       <c r="A144" s="31" t="s">
         <v>1053</v>
       </c>
       <c r="B144" s="40" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C144" s="31" t="s">
         <v>1362</v>
-      </c>
-      <c r="C144" s="31" t="s">
-        <v>1363</v>
       </c>
       <c r="D144" s="31" t="s">
         <v>1060</v>
@@ -20124,15 +20155,15 @@
         <v>200.3127886</v>
       </c>
     </row>
-    <row r="145" spans="1:11" ht="18.95" customHeight="1">
+    <row r="145" spans="1:11" ht="18.95" hidden="1" customHeight="1">
       <c r="A145" s="31" t="s">
         <v>1094</v>
       </c>
       <c r="B145" s="40" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C145" s="34" t="s">
         <v>1364</v>
-      </c>
-      <c r="C145" s="34" t="s">
-        <v>1365</v>
       </c>
       <c r="D145" s="34" t="s">
         <v>1060</v>
@@ -20160,13 +20191,13 @@
         <v>1068</v>
       </c>
       <c r="B146" s="40" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="C146" s="34" t="s">
-        <v>1367</v>
+        <v>1532</v>
       </c>
       <c r="D146" s="34" t="s">
-        <v>1323</v>
+        <v>1525</v>
       </c>
       <c r="E146" s="35">
         <v>5.63</v>
@@ -20181,38 +20212,36 @@
         <v>5.6300000000000008</v>
       </c>
       <c r="K146" s="98" t="s">
-        <v>1525</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="147" spans="1:11" ht="18.95" customHeight="1">
       <c r="A147" s="31" t="s">
-        <v>1094</v>
+        <v>1068</v>
       </c>
       <c r="B147" s="40" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="C147" s="34" t="s">
-        <v>1369</v>
+        <v>1531</v>
       </c>
       <c r="D147" s="34" t="s">
-        <v>1067</v>
+        <v>1525</v>
       </c>
       <c r="E147" s="35">
-        <v>21.52</v>
-      </c>
-      <c r="F147" s="31">
-        <v>1.0760000000000001</v>
-      </c>
-      <c r="G147" s="32">
-        <f>20*F147</f>
-        <v>21.520000000000003</v>
+        <v>5.63</v>
+      </c>
+      <c r="F147" s="34"/>
+      <c r="G147" s="43">
+        <f>12*0.4</f>
+        <v>4.8000000000000007</v>
       </c>
       <c r="H147" s="33">
-        <f>G147+1.78</f>
-        <v>23.300000000000004</v>
-      </c>
-      <c r="K147" s="21">
-        <v>19.541989340000001</v>
+        <f>G147+0.83</f>
+        <v>5.6300000000000008</v>
+      </c>
+      <c r="K147" s="98" t="s">
+        <v>1522</v>
       </c>
     </row>
     <row r="148" spans="1:11" ht="18.95" customHeight="1">
@@ -20220,619 +20249,812 @@
         <v>1068</v>
       </c>
       <c r="B148" s="40" t="s">
-        <v>1370</v>
+        <v>1365</v>
       </c>
       <c r="C148" s="34" t="s">
-        <v>1371</v>
+        <v>1533</v>
       </c>
       <c r="D148" s="34" t="s">
-        <v>1338</v>
-      </c>
-      <c r="E148" s="35"/>
-      <c r="F148" s="21"/>
-      <c r="G148" s="32">
+        <v>1525</v>
+      </c>
+      <c r="E148" s="35">
+        <v>5.63</v>
+      </c>
+      <c r="F148" s="34"/>
+      <c r="G148" s="43">
+        <f>12*0.4</f>
+        <v>4.8000000000000007</v>
+      </c>
+      <c r="H148" s="33">
+        <f>G148+0.83</f>
+        <v>5.6300000000000008</v>
+      </c>
+      <c r="K148" s="98" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" ht="18.95" hidden="1" customHeight="1">
+      <c r="A149" s="31" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B149" s="40" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C149" s="34" t="s">
+        <v>1367</v>
+      </c>
+      <c r="D149" s="34" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E149" s="35">
+        <v>21.52</v>
+      </c>
+      <c r="F149" s="31">
+        <v>1.0760000000000001</v>
+      </c>
+      <c r="G149" s="32">
+        <f>20*F149</f>
+        <v>21.520000000000003</v>
+      </c>
+      <c r="H149" s="33">
+        <f>G149+1.78</f>
+        <v>23.300000000000004</v>
+      </c>
+      <c r="K149" s="21">
+        <v>19.541989340000001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" ht="18.95" hidden="1" customHeight="1">
+      <c r="A150" s="31" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B150" s="40" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C150" s="34" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D150" s="34" t="s">
+        <v>1337</v>
+      </c>
+      <c r="E150" s="35"/>
+      <c r="F150" s="21"/>
+      <c r="G150" s="32">
         <v>180</v>
       </c>
-      <c r="H148" s="33">
+      <c r="H150" s="33">
         <f>180+14.7</f>
         <v>194.7</v>
       </c>
-      <c r="K148" s="21">
+      <c r="K150" s="21">
         <v>174.5579041</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" ht="18.95" customHeight="1">
-      <c r="A149" s="31" t="s">
-        <v>1068</v>
-      </c>
-      <c r="B149" s="40" t="s">
-        <v>1372</v>
-      </c>
-      <c r="C149" s="34" t="s">
-        <v>1373</v>
-      </c>
-      <c r="D149" s="34" t="s">
-        <v>1374</v>
-      </c>
-      <c r="E149" s="35"/>
-      <c r="F149" s="34"/>
-      <c r="G149" s="43">
-        <v>170</v>
-      </c>
-      <c r="H149" s="33">
-        <v>0</v>
-      </c>
-      <c r="K149" s="98" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" ht="18.95" customHeight="1">
-      <c r="A150" s="31" t="s">
-        <v>1068</v>
-      </c>
-      <c r="B150" s="40" t="s">
-        <v>1375</v>
-      </c>
-      <c r="C150" s="34" t="s">
-        <v>1376</v>
-      </c>
-      <c r="D150" s="34" t="s">
-        <v>1374</v>
-      </c>
-      <c r="E150" s="35"/>
-      <c r="F150" s="34"/>
-      <c r="G150" s="43">
-        <v>170</v>
-      </c>
-      <c r="H150" s="33">
-        <v>0</v>
-      </c>
-      <c r="K150" s="98" t="s">
-        <v>1525</v>
       </c>
     </row>
     <row r="151" spans="1:11" ht="18.95" customHeight="1">
       <c r="A151" s="31" t="s">
-        <v>652</v>
+        <v>1068</v>
       </c>
       <c r="B151" s="40" t="s">
-        <v>1377</v>
+        <v>1370</v>
       </c>
       <c r="C151" s="34" t="s">
-        <v>1378</v>
+        <v>1526</v>
       </c>
       <c r="D151" s="34" t="s">
-        <v>1060</v>
+        <v>1372</v>
       </c>
       <c r="E151" s="35"/>
-      <c r="F151" s="31">
-        <v>0.82699999999999996</v>
-      </c>
-      <c r="G151" s="32">
-        <f>209*F151</f>
-        <v>172.84299999999999</v>
+      <c r="F151" s="34"/>
+      <c r="G151" s="43">
+        <v>170</v>
       </c>
       <c r="H151" s="33">
         <f>G151+14.7</f>
-        <v>187.54299999999998</v>
-      </c>
-      <c r="K151" s="21">
-        <v>200.3127886</v>
+        <v>184.7</v>
+      </c>
+      <c r="K151" s="98" t="s">
+        <v>1522</v>
       </c>
     </row>
     <row r="152" spans="1:11" ht="18.95" customHeight="1">
       <c r="A152" s="31" t="s">
-        <v>1057</v>
+        <v>1068</v>
       </c>
       <c r="B152" s="40" t="s">
-        <v>1379</v>
+        <v>1370</v>
       </c>
       <c r="C152" s="34" t="s">
-        <v>1380</v>
+        <v>1371</v>
       </c>
       <c r="D152" s="34" t="s">
-        <v>1067</v>
+        <v>1372</v>
       </c>
       <c r="E152" s="35"/>
-      <c r="F152" s="31">
-        <v>0.878</v>
-      </c>
-      <c r="G152" s="32">
-        <f>20*F152</f>
-        <v>17.559999999999999</v>
+      <c r="F152" s="34"/>
+      <c r="G152" s="43">
+        <v>170</v>
       </c>
       <c r="H152" s="33">
-        <f>G152+1.78</f>
-        <v>19.34</v>
-      </c>
-      <c r="K152" s="21">
-        <v>19.541989340000001</v>
+        <f>G152+14.7</f>
+        <v>184.7</v>
+      </c>
+      <c r="K152" s="98" t="s">
+        <v>1522</v>
       </c>
     </row>
     <row r="153" spans="1:11" ht="18.95" customHeight="1">
       <c r="A153" s="31" t="s">
-        <v>1057</v>
+        <v>1068</v>
       </c>
       <c r="B153" s="40" t="s">
-        <v>1381</v>
+        <v>1373</v>
       </c>
       <c r="C153" s="34" t="s">
-        <v>1382</v>
+        <v>1527</v>
       </c>
       <c r="D153" s="34" t="s">
-        <v>1060</v>
+        <v>1372</v>
       </c>
       <c r="E153" s="35"/>
-      <c r="F153" s="31">
-        <v>0.84899999999999998</v>
-      </c>
-      <c r="G153" s="32">
-        <f>209*F153</f>
-        <v>177.441</v>
+      <c r="F153" s="34"/>
+      <c r="G153" s="43">
+        <v>170</v>
       </c>
       <c r="H153" s="33">
         <f>G153+14.7</f>
-        <v>192.14099999999999</v>
-      </c>
-      <c r="K153" s="21">
-        <v>200.3127886</v>
+        <v>184.7</v>
+      </c>
+      <c r="K153" s="98" t="s">
+        <v>1522</v>
       </c>
     </row>
     <row r="154" spans="1:11" ht="18.95" customHeight="1">
       <c r="A154" s="31" t="s">
-        <v>1057</v>
+        <v>1068</v>
       </c>
       <c r="B154" s="40" t="s">
-        <v>1383</v>
+        <v>1373</v>
       </c>
       <c r="C154" s="34" t="s">
-        <v>1384</v>
+        <v>1374</v>
       </c>
       <c r="D154" s="34" t="s">
-        <v>1067</v>
+        <v>1372</v>
       </c>
       <c r="E154" s="35"/>
-      <c r="F154" s="31">
-        <v>0.84899999999999998</v>
-      </c>
-      <c r="G154" s="32">
-        <f>20*F154</f>
-        <v>16.98</v>
+      <c r="F154" s="34"/>
+      <c r="G154" s="43">
+        <v>170</v>
       </c>
       <c r="H154" s="33">
-        <f>G154+1.78</f>
-        <v>18.760000000000002</v>
-      </c>
-      <c r="K154" s="21">
-        <v>19.541989340000001</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" ht="18.95" customHeight="1">
+        <f>G154+14.7</f>
+        <v>184.7</v>
+      </c>
+      <c r="K154" s="98" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" ht="18.95" hidden="1" customHeight="1">
       <c r="A155" s="31" t="s">
-        <v>1057</v>
+        <v>652</v>
       </c>
       <c r="B155" s="40" t="s">
-        <v>1385</v>
+        <v>1375</v>
       </c>
       <c r="C155" s="34" t="s">
-        <v>1386</v>
+        <v>1376</v>
       </c>
       <c r="D155" s="34" t="s">
         <v>1060</v>
       </c>
       <c r="E155" s="35"/>
       <c r="F155" s="31">
-        <v>0.879</v>
+        <v>0.82699999999999996</v>
       </c>
       <c r="G155" s="32">
         <f>209*F155</f>
-        <v>183.71100000000001</v>
+        <v>172.84299999999999</v>
       </c>
       <c r="H155" s="33">
         <f>G155+14.7</f>
-        <v>198.411</v>
+        <v>187.54299999999998</v>
       </c>
       <c r="K155" s="21">
         <v>200.3127886</v>
       </c>
     </row>
-    <row r="156" spans="1:11" ht="18.95" customHeight="1">
+    <row r="156" spans="1:11" ht="18.95" hidden="1" customHeight="1">
       <c r="A156" s="31" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B156" s="40" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C156" s="34" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D156" s="34" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E156" s="35"/>
+      <c r="F156" s="31">
+        <v>0.878</v>
+      </c>
+      <c r="G156" s="32">
+        <f>20*F156</f>
+        <v>17.559999999999999</v>
+      </c>
+      <c r="H156" s="33">
+        <f>G156+1.78</f>
+        <v>19.34</v>
+      </c>
+      <c r="K156" s="21">
+        <v>19.541989340000001</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" ht="18.95" hidden="1" customHeight="1">
+      <c r="A157" s="31" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B157" s="40" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C157" s="34" t="s">
+        <v>1380</v>
+      </c>
+      <c r="D157" s="34" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E157" s="35"/>
+      <c r="F157" s="31">
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="G157" s="32">
+        <f>209*F157</f>
+        <v>177.441</v>
+      </c>
+      <c r="H157" s="33">
+        <f>G157+14.7</f>
+        <v>192.14099999999999</v>
+      </c>
+      <c r="K157" s="21">
+        <v>200.3127886</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" ht="18.95" hidden="1" customHeight="1">
+      <c r="A158" s="31" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B158" s="40" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C158" s="34" t="s">
+        <v>1382</v>
+      </c>
+      <c r="D158" s="34" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E158" s="35"/>
+      <c r="F158" s="31">
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="G158" s="32">
+        <f>20*F158</f>
+        <v>16.98</v>
+      </c>
+      <c r="H158" s="33">
+        <f>G158+1.78</f>
+        <v>18.760000000000002</v>
+      </c>
+      <c r="K158" s="21">
+        <v>19.541989340000001</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" ht="18.95" hidden="1" customHeight="1">
+      <c r="A159" s="31" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B159" s="40" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C159" s="34" t="s">
+        <v>1384</v>
+      </c>
+      <c r="D159" s="34" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E159" s="35"/>
+      <c r="F159" s="31">
+        <v>0.879</v>
+      </c>
+      <c r="G159" s="32">
+        <f>209*F159</f>
+        <v>183.71100000000001</v>
+      </c>
+      <c r="H159" s="33">
+        <f>G159+14.7</f>
+        <v>198.411</v>
+      </c>
+      <c r="K159" s="21">
+        <v>200.3127886</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" ht="18.95" hidden="1" customHeight="1">
+      <c r="A160" s="31" t="s">
         <v>1068</v>
       </c>
-      <c r="B156" s="40" t="s">
-        <v>1387</v>
-      </c>
-      <c r="C156" s="34" t="s">
-        <v>1388</v>
-      </c>
-      <c r="D156" s="34" t="s">
-        <v>1338</v>
-      </c>
-      <c r="E156" s="35"/>
-      <c r="F156" s="34"/>
-      <c r="G156" s="32">
+      <c r="B160" s="40" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C160" s="34" t="s">
+        <v>1386</v>
+      </c>
+      <c r="D160" s="34" t="s">
+        <v>1337</v>
+      </c>
+      <c r="E160" s="35"/>
+      <c r="F160" s="34"/>
+      <c r="G160" s="32">
         <v>180</v>
       </c>
-      <c r="H156" s="33">
+      <c r="H160" s="33">
         <f>180+14.7</f>
         <v>194.7</v>
       </c>
-      <c r="K156" s="21">
+      <c r="K160" s="21">
         <v>174.5579041</v>
       </c>
     </row>
-    <row r="157" spans="1:11" ht="18.95" customHeight="1">
-      <c r="A157" s="31" t="s">
+    <row r="161" spans="1:11" ht="18.95" hidden="1" customHeight="1">
+      <c r="A161" s="31" t="s">
         <v>1057</v>
       </c>
-      <c r="B157" s="40" t="s">
+      <c r="B161" s="40" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C161" s="34" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D161" s="34" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E161" s="35"/>
+      <c r="F161" s="31">
+        <v>0.85</v>
+      </c>
+      <c r="G161" s="32">
+        <f>16*F161</f>
+        <v>13.6</v>
+      </c>
+      <c r="H161" s="33">
+        <f>G161+0.83</f>
+        <v>14.43</v>
+      </c>
+      <c r="K161" s="21">
+        <v>15.03959147</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" ht="18.95" hidden="1" customHeight="1">
+      <c r="A162" s="31" t="s">
         <v>1389</v>
       </c>
-      <c r="C157" s="34" t="s">
+      <c r="B162" s="40" t="s">
         <v>1390</v>
       </c>
-      <c r="D157" s="34" t="s">
-        <v>1056</v>
-      </c>
-      <c r="E157" s="35"/>
-      <c r="F157" s="31">
-        <v>0.85</v>
-      </c>
-      <c r="G157" s="32">
-        <f>16*F157</f>
-        <v>13.6</v>
-      </c>
-      <c r="H157" s="33">
-        <f>G157+0.83</f>
-        <v>14.43</v>
-      </c>
-      <c r="K157" s="21">
-        <v>15.03959147</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11" ht="18.95" customHeight="1">
-      <c r="A158" s="31" t="s">
+      <c r="C162" s="34" t="s">
         <v>1391</v>
       </c>
-      <c r="B158" s="40" t="s">
+      <c r="D162" s="34" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E162" s="35">
+        <v>11.06</v>
+      </c>
+      <c r="F162" s="31">
+        <v>0.87</v>
+      </c>
+      <c r="G162" s="32">
+        <f>12*F162</f>
+        <v>10.44</v>
+      </c>
+      <c r="H162" s="33">
+        <f>G162+0.83</f>
+        <v>11.27</v>
+      </c>
+      <c r="K162" s="21">
+        <v>11.48719361</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" ht="18.95" hidden="1" customHeight="1">
+      <c r="A163" s="31" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B163" s="40" t="s">
         <v>1392</v>
       </c>
-      <c r="C158" s="34" t="s">
+      <c r="C163" s="34" t="s">
         <v>1393</v>
       </c>
-      <c r="D158" s="34" t="s">
+      <c r="D163" s="34" t="s">
         <v>1131</v>
       </c>
-      <c r="E158" s="35">
-        <v>11.06</v>
-      </c>
-      <c r="F158" s="31">
-        <v>0.87</v>
-      </c>
-      <c r="G158" s="32">
-        <f>12*F158</f>
-        <v>10.44</v>
-      </c>
-      <c r="H158" s="33">
-        <f>G158+0.83</f>
-        <v>11.27</v>
-      </c>
-      <c r="K158" s="21">
+      <c r="E163" s="35">
+        <v>10.92</v>
+      </c>
+      <c r="F163" s="31">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="G163" s="32">
+        <f>12*F163</f>
+        <v>10.295999999999999</v>
+      </c>
+      <c r="H163" s="33">
+        <f>G163+0.83</f>
+        <v>11.125999999999999</v>
+      </c>
+      <c r="K163" s="21">
         <v>11.48719361</v>
       </c>
     </row>
-    <row r="159" spans="1:11" ht="18.95" customHeight="1">
-      <c r="A159" s="31" t="s">
-        <v>1391</v>
-      </c>
-      <c r="B159" s="40" t="s">
+    <row r="164" spans="1:11" ht="18" hidden="1" customHeight="1">
+      <c r="A164" s="31" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B164" s="40" t="s">
         <v>1394</v>
       </c>
-      <c r="C159" s="34" t="s">
+      <c r="C164" s="34" t="s">
         <v>1395</v>
       </c>
-      <c r="D159" s="34" t="s">
-        <v>1131</v>
-      </c>
-      <c r="E159" s="35">
-        <v>10.92</v>
-      </c>
-      <c r="F159" s="31">
-        <v>0.85799999999999998</v>
-      </c>
-      <c r="G159" s="32">
-        <f>12*F159</f>
-        <v>10.295999999999999</v>
-      </c>
-      <c r="H159" s="33">
-        <f>G159+0.83</f>
-        <v>11.125999999999999</v>
-      </c>
-      <c r="K159" s="21">
-        <v>11.48719361</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" ht="18" customHeight="1">
-      <c r="A160" s="31" t="s">
-        <v>1057</v>
-      </c>
-      <c r="B160" s="40" t="s">
-        <v>1396</v>
-      </c>
-      <c r="C160" s="34" t="s">
-        <v>1397</v>
-      </c>
-      <c r="D160" s="34" t="s">
+      <c r="D164" s="34" t="s">
         <v>1060</v>
       </c>
-      <c r="E160" s="35">
+      <c r="E164" s="35">
         <v>189.77</v>
       </c>
-      <c r="F160" s="31">
+      <c r="F164" s="31">
         <v>0.90800000000000003</v>
       </c>
-      <c r="G160" s="32">
-        <f>209*F160</f>
+      <c r="G164" s="32">
+        <f>209*F164</f>
         <v>189.77200000000002</v>
-      </c>
-      <c r="H160" s="33">
-        <f>G160+14.7</f>
-        <v>204.47200000000001</v>
-      </c>
-      <c r="K160" s="21">
-        <v>200.3127886</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11" ht="18" customHeight="1">
-      <c r="A161" s="31" t="s">
-        <v>1398</v>
-      </c>
-      <c r="B161" s="40" t="s">
-        <v>1399</v>
-      </c>
-      <c r="C161" s="34" t="s">
-        <v>1400</v>
-      </c>
-      <c r="D161" s="34" t="s">
-        <v>1060</v>
-      </c>
-      <c r="E161" s="35"/>
-      <c r="F161" s="27">
-        <v>0.86899999999999999</v>
-      </c>
-      <c r="G161" s="32">
-        <f>209*F161</f>
-        <v>181.62100000000001</v>
-      </c>
-      <c r="H161" s="33">
-        <f>G161+14.7</f>
-        <v>196.321</v>
-      </c>
-      <c r="K161" s="21">
-        <v>200.3127886</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A162" s="27" t="s">
-        <v>903</v>
-      </c>
-      <c r="B162" s="40" t="s">
-        <v>1401</v>
-      </c>
-      <c r="C162" s="29" t="s">
-        <v>1402</v>
-      </c>
-      <c r="D162" s="27" t="s">
-        <v>1067</v>
-      </c>
-      <c r="E162" s="35"/>
-      <c r="F162" s="31">
-        <v>0.89</v>
-      </c>
-      <c r="G162" s="32">
-        <f>20*F162</f>
-        <v>17.8</v>
-      </c>
-      <c r="H162" s="33">
-        <f>G162+1.78</f>
-        <v>19.580000000000002</v>
-      </c>
-      <c r="K162" s="21">
-        <v>19.541989340000001</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A163" s="27" t="s">
-        <v>1403</v>
-      </c>
-      <c r="B163" s="40" t="s">
-        <v>1404</v>
-      </c>
-      <c r="C163" s="29" t="s">
-        <v>1405</v>
-      </c>
-      <c r="D163" s="27" t="s">
-        <v>1406</v>
-      </c>
-      <c r="E163" s="35"/>
-      <c r="F163" s="31"/>
-      <c r="G163" s="32">
-        <v>190</v>
-      </c>
-      <c r="H163" s="33">
-        <v>0</v>
-      </c>
-      <c r="K163" s="98" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A164" s="27" t="s">
-        <v>1053</v>
-      </c>
-      <c r="B164" s="40" t="s">
-        <v>1407</v>
-      </c>
-      <c r="C164" s="29" t="s">
-        <v>1408</v>
-      </c>
-      <c r="D164" s="27" t="s">
-        <v>1060</v>
-      </c>
-      <c r="E164" s="35">
-        <v>174.72</v>
-      </c>
-      <c r="F164" s="31">
-        <v>0.83599999999999997</v>
-      </c>
-      <c r="G164" s="32">
-        <f>F164*209</f>
-        <v>174.72399999999999</v>
       </c>
       <c r="H164" s="33">
         <f>G164+14.7</f>
-        <v>189.42399999999998</v>
+        <v>204.47200000000001</v>
       </c>
       <c r="K164" s="21">
         <v>200.3127886</v>
       </c>
     </row>
-    <row r="165" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A165" s="27" t="s">
-        <v>1053</v>
+    <row r="165" spans="1:11" ht="18" hidden="1" customHeight="1">
+      <c r="A165" s="31" t="s">
+        <v>1396</v>
       </c>
       <c r="B165" s="40" t="s">
-        <v>1409</v>
-      </c>
-      <c r="C165" s="29" t="s">
-        <v>1410</v>
-      </c>
-      <c r="D165" s="27" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C165" s="34" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D165" s="34" t="s">
         <v>1060</v>
       </c>
       <c r="E165" s="35"/>
-      <c r="F165" s="31">
-        <v>0.83609999999999995</v>
+      <c r="F165" s="27">
+        <v>0.86899999999999999</v>
       </c>
       <c r="G165" s="32">
-        <f>F165*209</f>
-        <v>174.7449</v>
+        <f>209*F165</f>
+        <v>181.62100000000001</v>
       </c>
       <c r="H165" s="33">
         <f>G165+14.7</f>
-        <v>189.44489999999999</v>
+        <v>196.321</v>
       </c>
       <c r="K165" s="21">
         <v>200.3127886</v>
       </c>
     </row>
-    <row r="166" spans="1:11" ht="20.100000000000001" customHeight="1">
+    <row r="166" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A166" s="27" t="s">
-        <v>1111</v>
+        <v>903</v>
       </c>
       <c r="B166" s="40" t="s">
-        <v>1411</v>
+        <v>1399</v>
       </c>
       <c r="C166" s="29" t="s">
-        <v>1412</v>
+        <v>1400</v>
       </c>
       <c r="D166" s="27" t="s">
-        <v>1060</v>
+        <v>1067</v>
       </c>
       <c r="E166" s="35"/>
       <c r="F166" s="31">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="G166" s="32">
-        <f>209*F166</f>
-        <v>181.83</v>
+        <f>20*F166</f>
+        <v>17.8</v>
       </c>
       <c r="H166" s="33">
-        <f>G166+14.7</f>
-        <v>196.53</v>
+        <f>G166+1.78</f>
+        <v>19.580000000000002</v>
       </c>
       <c r="K166" s="21">
-        <v>200.3127886</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11" ht="21" customHeight="1">
-      <c r="A167" s="31" t="s">
-        <v>1111</v>
-      </c>
-      <c r="B167" s="30" t="s">
-        <v>1413</v>
-      </c>
-      <c r="C167" s="34" t="s">
-        <v>1414</v>
+        <v>19.541989340000001</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A167" s="27" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B167" s="40" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C167" s="29" t="s">
+        <v>1529</v>
       </c>
       <c r="D167" s="27" t="s">
-        <v>1060</v>
-      </c>
-      <c r="E167" s="44"/>
-      <c r="F167" s="44"/>
-      <c r="G167" s="44"/>
+        <v>1403</v>
+      </c>
+      <c r="E167" s="35"/>
+      <c r="F167" s="31"/>
+      <c r="G167" s="32">
+        <v>190</v>
+      </c>
       <c r="H167" s="33">
-        <v>0</v>
-      </c>
-      <c r="K167" s="21">
-        <v>200.3127886</v>
+        <f t="shared" ref="H167:H172" si="7">G167+14.7</f>
+        <v>204.7</v>
+      </c>
+      <c r="K167" s="98" t="s">
+        <v>1522</v>
       </c>
     </row>
     <row r="168" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A168" s="27" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B168" s="40" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C168" s="29" t="s">
+        <v>1528</v>
+      </c>
+      <c r="D168" s="27" t="s">
+        <v>1403</v>
+      </c>
+      <c r="E168" s="35"/>
+      <c r="F168" s="31"/>
+      <c r="G168" s="32">
+        <v>190</v>
+      </c>
+      <c r="H168" s="33">
+        <f t="shared" si="7"/>
+        <v>204.7</v>
+      </c>
+      <c r="K168" s="98" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
+      <c r="A169" s="27" t="s">
         <v>1053</v>
       </c>
-      <c r="B168" s="30" t="s">
-        <v>1415</v>
-      </c>
-      <c r="C168" s="31" t="s">
-        <v>1416</v>
-      </c>
-      <c r="D168" s="31" t="s">
-        <v>1417</v>
-      </c>
-      <c r="E168" s="35"/>
-      <c r="F168" s="31">
-        <v>0.84599999999999997</v>
-      </c>
-      <c r="G168" s="32">
-        <f>15*F168</f>
-        <v>12.69</v>
-      </c>
-      <c r="H168" s="33">
-        <f>G168+0.83</f>
-        <v>13.52</v>
-      </c>
-      <c r="K168" s="98" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A169" s="31" t="s">
-        <v>1057</v>
-      </c>
-      <c r="B169" s="30" t="s">
-        <v>1418</v>
-      </c>
-      <c r="C169" s="31" t="s">
-        <v>1419</v>
+      <c r="B169" s="40" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C169" s="29" t="s">
+        <v>1405</v>
       </c>
       <c r="D169" s="27" t="s">
         <v>1060</v>
       </c>
-      <c r="E169" s="35"/>
-      <c r="F169" s="31"/>
-      <c r="G169" s="32"/>
+      <c r="E169" s="35">
+        <v>174.72</v>
+      </c>
+      <c r="F169" s="31">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="G169" s="32">
+        <f>F169*209</f>
+        <v>174.72399999999999</v>
+      </c>
       <c r="H169" s="33">
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>189.42399999999998</v>
       </c>
       <c r="K169" s="21">
         <v>200.3127886</v>
       </c>
     </row>
+    <row r="170" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
+      <c r="A170" s="27" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B170" s="40" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C170" s="29" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D170" s="27" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E170" s="35"/>
+      <c r="F170" s="31">
+        <v>0.83609999999999995</v>
+      </c>
+      <c r="G170" s="32">
+        <f>F170*209</f>
+        <v>174.7449</v>
+      </c>
+      <c r="H170" s="33">
+        <f t="shared" si="7"/>
+        <v>189.44489999999999</v>
+      </c>
+      <c r="K170" s="21">
+        <v>200.3127886</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
+      <c r="A171" s="27" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B171" s="40" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C171" s="29" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D171" s="27" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E171" s="35"/>
+      <c r="F171" s="31">
+        <v>0.87</v>
+      </c>
+      <c r="G171" s="32">
+        <f>209*F171</f>
+        <v>181.83</v>
+      </c>
+      <c r="H171" s="33">
+        <f t="shared" si="7"/>
+        <v>196.53</v>
+      </c>
+      <c r="K171" s="21">
+        <v>200.3127886</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" ht="21" hidden="1" customHeight="1">
+      <c r="A172" s="31" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B172" s="30" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C172" s="34" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D172" s="27" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E172" s="44"/>
+      <c r="F172" s="100">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="G172" s="100">
+        <f>209*F172</f>
+        <v>172.42499999999998</v>
+      </c>
+      <c r="H172" s="35">
+        <f t="shared" si="7"/>
+        <v>187.12499999999997</v>
+      </c>
+      <c r="K172" s="21">
+        <v>200.3127886</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A173" s="27" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B173" s="30" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C173" s="31" t="s">
+        <v>1530</v>
+      </c>
+      <c r="D173" s="31" t="s">
+        <v>1414</v>
+      </c>
+      <c r="E173" s="35"/>
+      <c r="F173" s="31">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="G173" s="32">
+        <f>15*F173</f>
+        <v>12.69</v>
+      </c>
+      <c r="H173" s="33">
+        <f>G173+0.83</f>
+        <v>13.52</v>
+      </c>
+      <c r="K173" s="98" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" ht="20.100000000000001" customHeight="1">
+      <c r="A174" s="27" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B174" s="30" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C174" s="31" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D174" s="31" t="s">
+        <v>1414</v>
+      </c>
+      <c r="E174" s="35"/>
+      <c r="F174" s="31">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="G174" s="32">
+        <f>15*F174</f>
+        <v>12.69</v>
+      </c>
+      <c r="H174" s="33">
+        <f>G174+0.83</f>
+        <v>13.52</v>
+      </c>
+      <c r="K174" s="98" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1">
+      <c r="A175" s="31" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B175" s="30" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C175" s="31" t="s">
+        <v>1416</v>
+      </c>
+      <c r="D175" s="27" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E175" s="35"/>
+      <c r="F175" s="31">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="G175" s="32">
+        <f>209*F175</f>
+        <v>187.05500000000001</v>
+      </c>
+      <c r="H175" s="33">
+        <f>G175+14.7</f>
+        <v>201.755</v>
+      </c>
+      <c r="K175" s="21">
+        <v>200.3127886</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J169" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A1:J175" xr:uid="{00000000-0009-0000-0000-000002000000}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="12*0.4kg/CTN"/>
+        <filter val="170KG/DRUM"/>
+        <filter val="190KG/DRUM"/>
+        <filter val="208.1L/DRUM"/>
+        <filter val="208L/DRUM"/>
+        <filter val="3*5L/CTN"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -20859,97 +21081,97 @@
   <sheetData>
     <row r="1" spans="1:7" s="17" customFormat="1" ht="54.95" customHeight="1">
       <c r="A1" s="18" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="D1" s="19"/>
       <c r="E1" s="18" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="20" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="D2" s="20"/>
       <c r="E2" s="20" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="20" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="D3" s="20"/>
       <c r="E3" s="20" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="F3" s="95" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="20" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="D4" s="20"/>
       <c r="E4" s="20" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="20" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="D5" s="20"/>
       <c r="E5" s="20"/>
@@ -20958,13 +21180,13 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="20" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
@@ -20973,16 +21195,16 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="20" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
@@ -20990,16 +21212,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="20" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
@@ -21007,16 +21229,16 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="20" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>1450</v>
+        <v>1447</v>
       </c>
       <c r="E9" s="20"/>
       <c r="F9" s="20"/>
@@ -21024,16 +21246,16 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="20" t="s">
-        <v>1451</v>
+        <v>1448</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>1452</v>
+        <v>1449</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>1453</v>
+        <v>1450</v>
       </c>
       <c r="E10" s="20"/>
       <c r="F10" s="20"/>
@@ -21041,13 +21263,13 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="20" t="s">
-        <v>1454</v>
+        <v>1451</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>1455</v>
+        <v>1452</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -21056,13 +21278,13 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="20" t="s">
-        <v>1456</v>
+        <v>1453</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -21071,13 +21293,13 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="20" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -21140,97 +21362,97 @@
     </row>
     <row r="20" spans="1:7" s="17" customFormat="1" ht="54.95" customHeight="1">
       <c r="A20" s="18" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="D20" s="19"/>
       <c r="E20" s="18" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="20" t="s">
-        <v>1460</v>
+        <v>1457</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="D21" s="20"/>
       <c r="E21" s="20" t="s">
-        <v>1461</v>
+        <v>1458</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="20" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="D22" s="20"/>
       <c r="E22" s="20" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>1465</v>
+        <v>1462</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="20" t="s">
-        <v>1466</v>
+        <v>1463</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="D23" s="20"/>
       <c r="E23" s="20" t="s">
-        <v>1468</v>
+        <v>1465</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>1469</v>
+        <v>1466</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="20" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
@@ -21239,13 +21461,13 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="20" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="D25" s="20"/>
       <c r="E25" s="20"/>
@@ -21254,13 +21476,13 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="20" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="D26" s="20"/>
       <c r="E26" s="20"/>
@@ -21377,65 +21599,65 @@
     </row>
     <row r="39" spans="1:7" ht="54.95" customHeight="1">
       <c r="A39" s="18" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="D39" s="19"/>
       <c r="E39" s="18" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="G39" s="18" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="20" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
       <c r="D40" s="20"/>
       <c r="E40" s="20" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
       <c r="F40" s="20" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
       <c r="G40" s="20" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="20" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>1480</v>
+        <v>1477</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
       <c r="D41" s="20"/>
       <c r="E41" s="20" t="s">
-        <v>1481</v>
+        <v>1478</v>
       </c>
       <c r="F41" s="20" t="s">
-        <v>1465</v>
+        <v>1462</v>
       </c>
       <c r="G41" s="20" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -21444,13 +21666,13 @@
       <c r="C42" s="20"/>
       <c r="D42" s="20"/>
       <c r="E42" s="20" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
       <c r="F42" s="20" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="G42" s="20" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -21590,118 +21812,118 @@
     </row>
     <row r="58" spans="1:7" ht="54.95" customHeight="1">
       <c r="A58" s="18" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="D58" s="19"/>
       <c r="E58" s="18" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="F58" s="18" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="G58" s="18" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="20" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="D59" s="20"/>
       <c r="E59" s="20" t="s">
-        <v>1486</v>
+        <v>1483</v>
       </c>
       <c r="F59" s="20" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
       <c r="G59" s="20" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="20" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="D60" s="20"/>
       <c r="E60" s="20" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
       <c r="F60" s="20" t="s">
-        <v>1490</v>
+        <v>1487</v>
       </c>
       <c r="G60" s="20" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="20" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="D61" s="20"/>
       <c r="E61" s="20" t="s">
-        <v>1492</v>
+        <v>1489</v>
       </c>
       <c r="F61" s="20" t="s">
-        <v>1465</v>
+        <v>1462</v>
       </c>
       <c r="G61" s="20" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="20" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="D62" s="20"/>
       <c r="E62" s="20" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
       <c r="F62" s="20" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="G62" s="20" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="20" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="D63" s="20"/>
       <c r="E63" s="20"/>
@@ -21710,13 +21932,13 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="20" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="D64" s="20"/>
       <c r="E64" s="20"/>
@@ -21725,13 +21947,13 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="20" t="s">
-        <v>1500</v>
+        <v>1497</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>1501</v>
+        <v>1498</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="D65" s="20"/>
       <c r="E65" s="20"/>
@@ -21877,126 +22099,126 @@
   <sheetData>
     <row r="1" spans="1:39" s="1" customFormat="1" ht="57" customHeight="1">
       <c r="A1" s="3" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1500</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1501</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>1502</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1420</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>1503</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>1504</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>1505</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>1506</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>1507</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>1508</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>1509</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>1510</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>1511</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>1512</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>1513</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>1514</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>1515</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="S1" s="13" t="s">
+        <v>1499</v>
+      </c>
+      <c r="T1" s="13" t="s">
         <v>1516</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="U1" s="13" t="s">
         <v>1517</v>
       </c>
-      <c r="R1" s="3" t="s">
-        <v>1518</v>
-      </c>
-      <c r="S1" s="13" t="s">
+      <c r="V1" s="13" t="s">
+        <v>1501</v>
+      </c>
+      <c r="W1" s="13" t="s">
         <v>1502</v>
       </c>
-      <c r="T1" s="13" t="s">
-        <v>1519</v>
-      </c>
-      <c r="U1" s="13" t="s">
-        <v>1520</v>
-      </c>
-      <c r="V1" s="13" t="s">
+      <c r="X1" s="14" t="s">
+        <v>1503</v>
+      </c>
+      <c r="Y1" s="13" t="s">
         <v>1504</v>
       </c>
-      <c r="W1" s="13" t="s">
+      <c r="Z1" s="13" t="s">
         <v>1505</v>
       </c>
-      <c r="X1" s="14" t="s">
+      <c r="AA1" s="13" t="s">
         <v>1506</v>
       </c>
-      <c r="Y1" s="13" t="s">
+      <c r="AB1" s="13" t="s">
         <v>1507</v>
       </c>
-      <c r="Z1" s="13" t="s">
+      <c r="AC1" s="13" t="s">
         <v>1508</v>
       </c>
-      <c r="AA1" s="13" t="s">
+      <c r="AD1" s="13" t="s">
         <v>1509</v>
       </c>
-      <c r="AB1" s="13" t="s">
+      <c r="AE1" s="13" t="s">
         <v>1510</v>
       </c>
-      <c r="AC1" s="13" t="s">
+      <c r="AF1" s="13" t="s">
         <v>1511</v>
       </c>
-      <c r="AD1" s="13" t="s">
+      <c r="AG1" s="13" t="s">
         <v>1512</v>
       </c>
-      <c r="AE1" s="13" t="s">
+      <c r="AH1" s="13" t="s">
         <v>1513</v>
       </c>
-      <c r="AF1" s="13" t="s">
+      <c r="AI1" s="13" t="s">
         <v>1514</v>
       </c>
-      <c r="AG1" s="13" t="s">
+      <c r="AJ1" s="13" t="s">
         <v>1515</v>
-      </c>
-      <c r="AH1" s="13" t="s">
-        <v>1516</v>
-      </c>
-      <c r="AI1" s="13" t="s">
-        <v>1517</v>
-      </c>
-      <c r="AJ1" s="13" t="s">
-        <v>1518</v>
       </c>
       <c r="AK1" s="13"/>
       <c r="AL1" s="13"/>
       <c r="AM1" s="16"/>
     </row>
     <row r="2" spans="1:39" ht="24" customHeight="1">
-      <c r="A2" s="105" t="s">
-        <v>1427</v>
+      <c r="A2" s="106" t="s">
+        <v>1424</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="7"/>
@@ -22013,14 +22235,14 @@
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
-      <c r="S2" s="108" t="s">
-        <v>1427</v>
+      <c r="S2" s="109" t="s">
+        <v>1424</v>
       </c>
       <c r="T2" s="15" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="U2" s="15" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="V2" s="15"/>
       <c r="W2" s="15"/>
@@ -22042,12 +22264,12 @@
       <c r="AM2" s="15"/>
     </row>
     <row r="3" spans="1:39" ht="24" customHeight="1">
-      <c r="A3" s="106"/>
+      <c r="A3" s="107"/>
       <c r="B3" s="5" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
@@ -22064,12 +22286,12 @@
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
-      <c r="S3" s="106"/>
+      <c r="S3" s="107"/>
       <c r="T3" s="15" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="U3" s="96" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="V3" s="15"/>
       <c r="W3" s="15"/>
@@ -22091,12 +22313,12 @@
       <c r="AM3" s="15"/>
     </row>
     <row r="4" spans="1:39">
-      <c r="A4" s="106"/>
+      <c r="A4" s="107"/>
       <c r="B4" s="5" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
@@ -22113,12 +22335,12 @@
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
-      <c r="S4" s="106"/>
+      <c r="S4" s="107"/>
       <c r="T4" s="15" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="U4" s="15" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="V4" s="15"/>
       <c r="W4" s="15"/>
@@ -22140,12 +22362,12 @@
       <c r="AM4" s="15"/>
     </row>
     <row r="5" spans="1:39" ht="23.25" customHeight="1">
-      <c r="A5" s="106"/>
+      <c r="A5" s="107"/>
       <c r="B5" s="5" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="7"/>
@@ -22162,7 +22384,7 @@
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
-      <c r="S5" s="106"/>
+      <c r="S5" s="107"/>
       <c r="T5" s="15"/>
       <c r="U5" s="15"/>
       <c r="V5" s="15"/>
@@ -22185,12 +22407,12 @@
       <c r="AM5" s="15"/>
     </row>
     <row r="6" spans="1:39" ht="36" customHeight="1">
-      <c r="A6" s="106"/>
+      <c r="A6" s="107"/>
       <c r="B6" s="5" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="7"/>
@@ -22207,7 +22429,7 @@
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
-      <c r="S6" s="106"/>
+      <c r="S6" s="107"/>
       <c r="T6" s="15"/>
       <c r="U6" s="15"/>
       <c r="V6" s="15"/>
@@ -22230,15 +22452,15 @@
       <c r="AM6" s="15"/>
     </row>
     <row r="7" spans="1:39">
-      <c r="A7" s="106"/>
+      <c r="A7" s="107"/>
       <c r="B7" s="5" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="8"/>
@@ -22254,7 +22476,7 @@
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
-      <c r="S7" s="106"/>
+      <c r="S7" s="107"/>
       <c r="T7" s="15"/>
       <c r="U7" s="15"/>
       <c r="V7" s="15"/>
@@ -22277,15 +22499,15 @@
       <c r="AM7" s="15"/>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" s="106"/>
+      <c r="A8" s="107"/>
       <c r="B8" s="5" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="8"/>
@@ -22301,7 +22523,7 @@
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
-      <c r="S8" s="106"/>
+      <c r="S8" s="107"/>
       <c r="T8" s="15"/>
       <c r="U8" s="15"/>
       <c r="V8" s="15"/>
@@ -22324,15 +22546,15 @@
       <c r="AM8" s="15"/>
     </row>
     <row r="9" spans="1:39" ht="24" customHeight="1">
-      <c r="A9" s="106"/>
+      <c r="A9" s="107"/>
       <c r="B9" s="5" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>1450</v>
+        <v>1447</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
@@ -22348,7 +22570,7 @@
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
-      <c r="S9" s="106"/>
+      <c r="S9" s="107"/>
       <c r="T9" s="15"/>
       <c r="U9" s="15"/>
       <c r="V9" s="15"/>
@@ -22371,15 +22593,15 @@
       <c r="AM9" s="15"/>
     </row>
     <row r="10" spans="1:39" ht="24" customHeight="1">
-      <c r="A10" s="106"/>
+      <c r="A10" s="107"/>
       <c r="B10" s="5" t="s">
-        <v>1451</v>
+        <v>1448</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>1452</v>
+        <v>1449</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>1453</v>
+        <v>1450</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
@@ -22395,7 +22617,7 @@
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
-      <c r="S10" s="106"/>
+      <c r="S10" s="107"/>
       <c r="T10" s="15"/>
       <c r="U10" s="15"/>
       <c r="V10" s="15"/>
@@ -22418,12 +22640,12 @@
       <c r="AM10" s="15"/>
     </row>
     <row r="11" spans="1:39" ht="36" customHeight="1">
-      <c r="A11" s="107"/>
+      <c r="A11" s="108"/>
       <c r="B11" s="5" t="s">
-        <v>1454</v>
+        <v>1451</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>1455</v>
+        <v>1452</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="7"/>
@@ -22440,7 +22662,7 @@
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
-      <c r="S11" s="107"/>
+      <c r="S11" s="108"/>
       <c r="T11" s="15"/>
       <c r="U11" s="15"/>
       <c r="V11" s="15"/>
@@ -22504,14 +22726,14 @@
       <c r="AM12" s="12"/>
     </row>
     <row r="13" spans="1:39">
-      <c r="A13" s="105" t="s">
-        <v>1431</v>
+      <c r="A13" s="106" t="s">
+        <v>1428</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>1460</v>
+        <v>1457</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="7"/>
@@ -22551,12 +22773,12 @@
       <c r="AM13" s="15"/>
     </row>
     <row r="14" spans="1:39" ht="36" customHeight="1">
-      <c r="A14" s="106"/>
+      <c r="A14" s="107"/>
       <c r="B14" s="6" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="7"/>
@@ -22596,12 +22818,12 @@
       <c r="AM14" s="15"/>
     </row>
     <row r="15" spans="1:39" ht="36" customHeight="1">
-      <c r="A15" s="106"/>
+      <c r="A15" s="107"/>
       <c r="B15" s="6" t="s">
-        <v>1466</v>
+        <v>1463</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="7"/>
@@ -22641,12 +22863,12 @@
       <c r="AM15" s="15"/>
     </row>
     <row r="16" spans="1:39" ht="23.25" customHeight="1">
-      <c r="A16" s="106"/>
+      <c r="A16" s="107"/>
       <c r="B16" s="6" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="7"/>
@@ -22686,12 +22908,12 @@
       <c r="AM16" s="15"/>
     </row>
     <row r="17" spans="1:39" ht="24" customHeight="1">
-      <c r="A17" s="106"/>
+      <c r="A17" s="107"/>
       <c r="B17" s="6" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="7"/>
@@ -22731,12 +22953,12 @@
       <c r="AM17" s="15"/>
     </row>
     <row r="18" spans="1:39">
-      <c r="A18" s="107"/>
+      <c r="A18" s="108"/>
       <c r="B18" s="6" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="7"/>
